--- a/tools/CodigosDivisas.xlsx
+++ b/tools/CodigosDivisas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\OracleONEspecializacion\Documentacion convertidor Monedas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\OracleONEspecializacion\convertidorMonedas\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7082008D-8338-4A07-8980-A30373400AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E226DE-7DA8-4409-AD2F-649BD13C7512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF23874D-DFA7-4848-9B44-3846B1994592}"/>
   </bookViews>
@@ -1899,7 +1899,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2037,34 +2037,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -2118,11 +2092,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2164,22 +2147,23 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2514,63 +2498,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C7A6E4-D28E-4717-B84D-E585C69079E7}">
-  <dimension ref="B1:J271"/>
+  <dimension ref="B2:T271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.28515625" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" customWidth="1"/>
+    <col min="11" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="45.7109375" customWidth="1"/>
+    <col min="16" max="16" width="2.5703125" customWidth="1"/>
+    <col min="17" max="17" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
         <v>598</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+    </row>
+    <row r="3" spans="2:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="9">
+        <v>978</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="M3" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="N3" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="O3" s="19" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="T3" s="9">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2584,20 +2608,46 @@
         <v>971</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J4" s="5">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="9">
+        <v>978</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="O4" s="9">
+        <v>417</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="T4" s="9">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
@@ -2612,19 +2662,41 @@
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="6" t="s">
-        <v>296</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="J5" s="9">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="9">
+        <v>36</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="T5" s="9">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2639,19 +2711,45 @@
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="6" t="s">
-        <v>299</v>
+        <v>171</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="J6" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="O6" s="9">
+        <v>414</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="T6" s="9">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
@@ -2666,19 +2764,45 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="6" t="s">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>302</v>
+        <v>173</v>
       </c>
       <c r="J7" s="9">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="O7" s="9">
+        <v>426</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="T7" s="9">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
@@ -2693,19 +2817,45 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="9">
+        <v>978</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="L8" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="J8" s="9">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="O8" s="9">
+        <v>710</v>
+      </c>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="9">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2720,19 +2870,45 @@
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="6" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>307</v>
+        <v>177</v>
       </c>
       <c r="J9" s="9">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="9">
+        <v>978</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="T9" s="9">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
@@ -2747,19 +2923,45 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="6" t="s">
-        <v>308</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="J10" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="L10" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="O10" s="9">
+        <v>430</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="T10" s="9">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
@@ -2774,19 +2976,45 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="6" t="s">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>310</v>
+        <v>182</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>311</v>
+        <v>183</v>
       </c>
       <c r="J11" s="9">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="O11" s="9">
+        <v>434</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="T11" s="9">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
@@ -2797,19 +3025,45 @@
       <c r="E12" s="9"/>
       <c r="F12" s="14"/>
       <c r="G12" s="6" t="s">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>313</v>
+        <v>7</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>314</v>
+        <v>8</v>
       </c>
       <c r="J12" s="9">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="O12" s="9">
+        <v>756</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="R12" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="T12" s="9">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
@@ -2824,19 +3078,45 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="6" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="J13" s="9">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="9">
+        <v>978</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="T13" s="9">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
@@ -2851,7 +3131,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="6" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>7</v>
@@ -2862,8 +3142,34 @@
       <c r="J14" s="9">
         <v>978</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="14"/>
+      <c r="L14" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="9">
+        <v>978</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" s="9">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
@@ -2878,19 +3184,45 @@
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="6" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="9">
+        <v>950</v>
+      </c>
+      <c r="K15" s="14"/>
+      <c r="L15" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="O15" s="9">
+        <v>422</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="R15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="S15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="9">
+      <c r="T15" s="9">
         <v>978</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
@@ -2905,19 +3237,45 @@
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="6" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="J16" s="9">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="K16" s="14"/>
+      <c r="L16" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="O16" s="9">
+        <v>446</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" s="9">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
@@ -2932,19 +3290,45 @@
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="6" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="J17" s="9">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+      <c r="K17" s="14"/>
+      <c r="L17" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="O17" s="9">
+        <v>807</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="R17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="9">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>37</v>
       </c>
@@ -2959,19 +3343,45 @@
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="6" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>328</v>
+        <v>198</v>
       </c>
       <c r="J18" s="9">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="O18" s="9">
+        <v>969</v>
+      </c>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="R18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="9">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>38</v>
       </c>
@@ -2986,19 +3396,45 @@
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="6" t="s">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>331</v>
+        <v>201</v>
       </c>
       <c r="J19" s="9">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="O19" s="9">
+        <v>458</v>
+      </c>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="T19" s="9">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>41</v>
       </c>
@@ -3013,19 +3449,45 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="6" t="s">
-        <v>332</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>333</v>
+        <v>17</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>334</v>
+        <v>18</v>
       </c>
       <c r="J20" s="9">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+      <c r="K20" s="14"/>
+      <c r="L20" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="O20" s="9">
+        <v>454</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="9">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
@@ -3040,19 +3502,45 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="6" t="s">
-        <v>335</v>
+        <v>203</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>336</v>
+        <v>7</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="J21" s="9">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="O21" s="9">
+        <v>462</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="T21" s="9">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>47</v>
       </c>
@@ -3067,19 +3555,45 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="6" t="s">
-        <v>338</v>
+        <v>204</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>339</v>
+        <v>151</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c r="J22" s="9">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="9">
+        <v>978</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T22" s="9">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>50</v>
       </c>
@@ -3094,7 +3608,7 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="6" t="s">
-        <v>341</v>
+        <v>205</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>7</v>
@@ -3105,8 +3619,34 @@
       <c r="J23" s="9">
         <v>978</v>
       </c>
-    </row>
-    <row r="24" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="14"/>
+      <c r="L23" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="9">
+        <v>952</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="T23" s="9">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>53</v>
       </c>
@@ -3121,19 +3661,45 @@
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="6" t="s">
-        <v>342</v>
+        <v>206</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="J24" s="9">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="O24" s="9">
+        <v>504</v>
+      </c>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="R24" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" s="9">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>56</v>
       </c>
@@ -3148,19 +3714,45 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="6" t="s">
-        <v>343</v>
+        <v>207</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>344</v>
+        <v>208</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>345</v>
+        <v>209</v>
       </c>
       <c r="J25" s="9">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="9">
+        <v>978</v>
+      </c>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="R25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25" s="9">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>59</v>
       </c>
@@ -3175,19 +3767,45 @@
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="6" t="s">
-        <v>346</v>
+        <v>210</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
       <c r="J26" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="O26" s="9">
+        <v>480</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="R26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T26" s="9">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>62</v>
       </c>
@@ -3202,19 +3820,45 @@
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="6" t="s">
-        <v>347</v>
+        <v>213</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>348</v>
+        <v>214</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>349</v>
+        <v>215</v>
       </c>
       <c r="J27" s="9">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="O27" s="9">
+        <v>478</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="R27" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="T27" s="9">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>65</v>
       </c>
@@ -3229,19 +3873,45 @@
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="6" t="s">
-        <v>350</v>
+        <v>216</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>352</v>
+        <v>109</v>
       </c>
       <c r="J28" s="9">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O28" s="9">
+        <v>978</v>
+      </c>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="R28" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="T28" s="9">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>68</v>
       </c>
@@ -3256,19 +3926,45 @@
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="6" t="s">
-        <v>353</v>
+        <v>217</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="J29" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29" s="9">
+        <v>840</v>
+      </c>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="T29" s="9">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>68</v>
       </c>
@@ -3283,19 +3979,45 @@
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="6" t="s">
-        <v>354</v>
+        <v>218</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="J30" s="9">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="O30" s="9">
+        <v>496</v>
+      </c>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="T30" s="9">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>73</v>
       </c>
@@ -3310,19 +4032,45 @@
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="6" t="s">
-        <v>355</v>
+        <v>221</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>357</v>
+        <v>8</v>
       </c>
       <c r="J31" s="9">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="9">
+        <v>978</v>
+      </c>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="T31" s="9">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>76</v>
       </c>
@@ -3337,19 +4085,45 @@
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="6" t="s">
-        <v>358</v>
+        <v>222</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="J32" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="9">
+        <v>951</v>
+      </c>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="T32" s="9">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>79</v>
       </c>
@@ -3364,19 +4138,45 @@
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="6" t="s">
-        <v>359</v>
+        <v>222</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>360</v>
+        <v>74</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J33" s="9">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="O33" s="9">
+        <v>943</v>
+      </c>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="R33" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="T33" s="9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>82</v>
       </c>
@@ -3391,19 +4191,45 @@
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="6" t="s">
-        <v>361</v>
+        <v>225</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>362</v>
+        <v>7</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>363</v>
+        <v>8</v>
       </c>
       <c r="J34" s="9">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="O34" s="9">
+        <v>484</v>
+      </c>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="R34" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="T34" s="9">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>85</v>
       </c>
@@ -3418,19 +4244,45 @@
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="J35" s="9">
+        <v>340</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="J35" s="9">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="O35" s="9">
+        <v>979</v>
+      </c>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="R35" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="T35" s="9">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>88</v>
       </c>
@@ -3445,19 +4297,45 @@
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="6" t="s">
-        <v>364</v>
+        <v>229</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>367</v>
+        <v>230</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="J36" s="9">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="K36" s="14"/>
+      <c r="L36" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" s="9">
+        <v>978</v>
+      </c>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="R36" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="T36" s="9">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>91</v>
       </c>
@@ -3472,19 +4350,45 @@
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="6" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>7</v>
+        <v>233</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="J37" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="K37" s="14"/>
+      <c r="L37" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="O37" s="9">
+        <v>516</v>
+      </c>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="T37" s="9">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>92</v>
       </c>
@@ -3499,19 +4403,45 @@
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="9">
+        <v>356</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="H38" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="J38" s="9">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" s="9">
+        <v>710</v>
+      </c>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="T38" s="9">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
         <v>95</v>
       </c>
@@ -3526,19 +4456,45 @@
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="6" t="s">
-        <v>370</v>
+        <v>236</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>307</v>
+        <v>238</v>
       </c>
       <c r="J39" s="9">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="K39" s="14"/>
+      <c r="L39" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" s="9">
+        <v>36</v>
+      </c>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="T39" s="9">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>95</v>
       </c>
@@ -3553,19 +4509,45 @@
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="6" t="s">
-        <v>373</v>
+        <v>239</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="J40" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="K40" s="14"/>
+      <c r="L40" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="O40" s="9">
+        <v>524</v>
+      </c>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="T40" s="9">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>100</v>
       </c>
@@ -3580,19 +4562,45 @@
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="6" t="s">
-        <v>374</v>
+        <v>242</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>375</v>
+        <v>7</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>376</v>
+        <v>8</v>
       </c>
       <c r="J41" s="9">
+        <v>978</v>
+      </c>
+      <c r="K41" s="14"/>
+      <c r="L41" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="O41" s="9">
+        <v>558</v>
+      </c>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="R41" s="7" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="42" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S41" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="T41" s="9">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>101</v>
       </c>
@@ -3607,19 +4615,45 @@
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="6" t="s">
-        <v>377</v>
+        <v>243</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>379</v>
+        <v>245</v>
       </c>
       <c r="J42" s="9">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="K42" s="14"/>
+      <c r="L42" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O42" s="9">
+        <v>952</v>
+      </c>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="T42" s="9">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>104</v>
       </c>
@@ -3634,19 +4668,45 @@
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J43" s="9">
+        <v>826</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="H43" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J43" s="9">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M43" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="O43" s="9">
+        <v>566</v>
+      </c>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="T43" s="9">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>107</v>
       </c>
@@ -3661,19 +4721,45 @@
       </c>
       <c r="F44" s="14"/>
       <c r="G44" s="6" t="s">
-        <v>380</v>
+        <v>247</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>381</v>
+        <v>35</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>382</v>
+        <v>36</v>
       </c>
       <c r="J44" s="9">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K44" s="14"/>
+      <c r="L44" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="O44" s="9">
+        <v>554</v>
+      </c>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="T44" s="9">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>110</v>
       </c>
@@ -3688,19 +4774,45 @@
       </c>
       <c r="F45" s="14"/>
       <c r="G45" s="6" t="s">
-        <v>383</v>
+        <v>248</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>384</v>
+        <v>35</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="J45" s="9">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O45" s="9">
+        <v>578</v>
+      </c>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="T45" s="9">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>113</v>
       </c>
@@ -3715,19 +4827,45 @@
       </c>
       <c r="F46" s="14"/>
       <c r="G46" s="6" t="s">
-        <v>385</v>
+        <v>249</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="J46" s="9">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="K46" s="14"/>
+      <c r="L46" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O46" s="9">
+        <v>953</v>
+      </c>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="R46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T46" s="9">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
         <v>114</v>
       </c>
@@ -3742,19 +4880,45 @@
       </c>
       <c r="F47" s="14"/>
       <c r="G47" s="6" t="s">
-        <v>386</v>
+        <v>252</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>387</v>
+        <v>253</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>388</v>
+        <v>254</v>
       </c>
       <c r="J47" s="9">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="K47" s="14"/>
+      <c r="L47" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="O47" s="9">
+        <v>554</v>
+      </c>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="9">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
         <v>114</v>
       </c>
@@ -3769,19 +4933,45 @@
       </c>
       <c r="F48" s="14"/>
       <c r="G48" s="6" t="s">
-        <v>389</v>
+        <v>255</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>384</v>
+        <v>35</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="J48" s="9">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K48" s="14"/>
+      <c r="L48" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="O48" s="9">
+        <v>512</v>
+      </c>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="R48" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T48" s="9">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="6" t="s">
         <v>119</v>
       </c>
@@ -3796,19 +4986,45 @@
       </c>
       <c r="F49" s="14"/>
       <c r="G49" s="6" t="s">
-        <v>390</v>
+        <v>256</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>391</v>
+        <v>257</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>392</v>
+        <v>258</v>
       </c>
       <c r="J49" s="9">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="K49" s="14"/>
+      <c r="L49" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="O49" s="9">
+        <v>965</v>
+      </c>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T49" s="9">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>122</v>
       </c>
@@ -3823,19 +5039,45 @@
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="6" t="s">
-        <v>393</v>
+        <v>259</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>394</v>
+        <v>151</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>395</v>
+        <v>152</v>
       </c>
       <c r="J50" s="9">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="K50" s="14"/>
+      <c r="L50" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="O50" s="9">
+        <v>586</v>
+      </c>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="T50" s="9">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>123</v>
       </c>
@@ -3850,19 +5092,41 @@
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="6" t="s">
-        <v>396</v>
+        <v>260</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="J51" s="9">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O51" s="9">
+        <v>840</v>
+      </c>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="R51" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="T51" s="9">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>123</v>
       </c>
@@ -3877,19 +5141,45 @@
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="6" t="s">
-        <v>399</v>
+        <v>261</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J52" s="9">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="K52" s="14"/>
+      <c r="L52" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="O52" s="9">
+        <v>590</v>
+      </c>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="R52" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="T52" s="9">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>128</v>
       </c>
@@ -3904,19 +5194,45 @@
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J53" s="9">
+        <v>238</v>
+      </c>
+      <c r="K53" s="14"/>
+      <c r="L53" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="J53" s="9">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M53" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O53" s="9">
+        <v>840</v>
+      </c>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="S53" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="T53" s="9">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
         <v>131</v>
       </c>
@@ -3931,7 +5247,7 @@
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="6" t="s">
-        <v>400</v>
+        <v>265</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>74</v>
@@ -3942,8 +5258,34 @@
       <c r="J54" s="9">
         <v>840</v>
       </c>
-    </row>
-    <row r="55" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K54" s="14"/>
+      <c r="L54" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="O54" s="9">
+        <v>598</v>
+      </c>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="S54" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="T54" s="9">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
         <v>132</v>
       </c>
@@ -3958,19 +5300,45 @@
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="6" t="s">
-        <v>403</v>
+        <v>266</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>405</v>
+        <v>75</v>
       </c>
       <c r="J55" s="9">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="K55" s="14"/>
+      <c r="L55" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="O55" s="9">
+        <v>600</v>
+      </c>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="R55" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="S55" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T55" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="6" t="s">
         <v>135</v>
       </c>
@@ -3985,19 +5353,45 @@
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="6" t="s">
-        <v>406</v>
+        <v>267</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>407</v>
+        <v>268</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>408</v>
+        <v>269</v>
       </c>
       <c r="J56" s="9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="K56" s="14"/>
+      <c r="L56" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="O56" s="9">
+        <v>604</v>
+      </c>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="R56" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="S56" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="T56" s="9">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>136</v>
       </c>
@@ -4012,19 +5406,45 @@
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="6" t="s">
-        <v>409</v>
+        <v>270</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>410</v>
+        <v>244</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>411</v>
+        <v>245</v>
       </c>
       <c r="J57" s="9">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="K57" s="14"/>
+      <c r="L57" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="O57" s="9">
+        <v>554</v>
+      </c>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="R57" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="S57" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="T57" s="9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>139</v>
       </c>
@@ -4039,19 +5459,45 @@
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="6" t="s">
-        <v>412</v>
+        <v>271</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>384</v>
+        <v>74</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="J58" s="9">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="K58" s="14"/>
+      <c r="L58" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="O58" s="9">
+        <v>953</v>
+      </c>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="R58" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="S58" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="T58" s="9">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>142</v>
       </c>
@@ -4066,19 +5512,45 @@
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="6" t="s">
-        <v>413</v>
+        <v>272</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>387</v>
+        <v>74</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>388</v>
+        <v>75</v>
       </c>
       <c r="J59" s="9">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="K59" s="14"/>
+      <c r="L59" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="O59" s="9">
+        <v>985</v>
+      </c>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S59" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="9">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="60" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="6" t="s">
         <v>142</v>
       </c>
@@ -4093,19 +5565,45 @@
       </c>
       <c r="F60" s="14"/>
       <c r="G60" s="6" t="s">
-        <v>414</v>
+        <v>273</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>415</v>
+        <v>74</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>416</v>
+        <v>75</v>
       </c>
       <c r="J60" s="9">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="K60" s="14"/>
+      <c r="L60" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="M60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="O60" s="9">
+        <v>978</v>
+      </c>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="R60" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="S60" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="T60" s="9">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="61" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>147</v>
       </c>
@@ -4120,19 +5618,45 @@
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="6" t="s">
-        <v>417</v>
+        <v>274</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="J61" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="K61" s="14"/>
+      <c r="L61" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O61" s="9">
+        <v>840</v>
+      </c>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="R61" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="S61" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="T61" s="9">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="6" t="s">
         <v>150</v>
       </c>
@@ -4147,19 +5671,45 @@
       </c>
       <c r="F62" s="14"/>
       <c r="G62" s="6" t="s">
-        <v>418</v>
+        <v>275</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="J62" s="9">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+      <c r="K62" s="14"/>
+      <c r="L62" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="O62" s="9">
+        <v>634</v>
+      </c>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="R62" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="S62" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="T62" s="9">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="63" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>153</v>
       </c>
@@ -4174,19 +5724,45 @@
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="6" t="s">
-        <v>419</v>
+        <v>276</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>420</v>
+        <v>277</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>421</v>
+        <v>278</v>
       </c>
       <c r="J63" s="9">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="K63" s="14"/>
+      <c r="L63" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="O63" s="9">
+        <v>826</v>
+      </c>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="R63" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="S63" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="T63" s="9">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>154</v>
       </c>
@@ -4201,19 +5777,45 @@
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="6" t="s">
-        <v>422</v>
+        <v>279</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>211</v>
+        <v>7</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>212</v>
+        <v>8</v>
       </c>
       <c r="J64" s="9">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+      <c r="K64" s="14"/>
+      <c r="L64" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="O64" s="9">
+        <v>418</v>
+      </c>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="R64" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="S64" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="T64" s="9">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>155</v>
       </c>
@@ -4228,19 +5830,45 @@
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="6" t="s">
-        <v>423</v>
+        <v>280</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>424</v>
+        <v>281</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>425</v>
+        <v>282</v>
       </c>
       <c r="J65" s="9">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="K65" s="14"/>
+      <c r="L65" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="M65" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="O65" s="9">
+        <v>937</v>
+      </c>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="R65" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="S65" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="T65" s="9">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>158</v>
       </c>
@@ -4255,19 +5883,45 @@
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="6" t="s">
-        <v>426</v>
+        <v>283</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>427</v>
+        <v>284</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="J66" s="9">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>392</v>
+      </c>
+      <c r="K66" s="14"/>
+      <c r="L66" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O66" s="9">
+        <v>950</v>
+      </c>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="R66" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="S66" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="T66" s="9">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>158</v>
       </c>
@@ -4282,19 +5936,45 @@
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="6" t="s">
-        <v>429</v>
+        <v>286</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="J67" s="9">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+      <c r="K67" s="14"/>
+      <c r="L67" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="O67" s="9">
+        <v>203</v>
+      </c>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="R67" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="S67" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="T67" s="9">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>161</v>
       </c>
@@ -4309,19 +5989,45 @@
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="6" t="s">
-        <v>430</v>
+        <v>287</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>431</v>
+        <v>288</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>432</v>
+        <v>289</v>
       </c>
       <c r="J68" s="9">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="K68" s="14"/>
+      <c r="L68" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="O68" s="9">
+        <v>410</v>
+      </c>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="R68" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="S68" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="T68" s="9">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="s">
         <v>164</v>
       </c>
@@ -4336,19 +6042,45 @@
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="6" t="s">
-        <v>433</v>
+        <v>290</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>434</v>
+        <v>291</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>435</v>
+        <v>292</v>
       </c>
       <c r="J69" s="9">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="K69" s="14"/>
+      <c r="L69" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="O69" s="9">
+        <v>498</v>
+      </c>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>592</v>
+      </c>
+      <c r="S69" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="T69" s="13">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>167</v>
       </c>
@@ -4362,1955 +6094,996 @@
         <v>978</v>
       </c>
       <c r="F70" s="14"/>
-      <c r="G70" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="J70" s="9">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="9">
-        <v>978</v>
-      </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="J71" s="9">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="9">
-        <v>978</v>
-      </c>
-      <c r="F72" s="14"/>
-      <c r="G72" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="J72" s="9">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="J73" s="9">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E74" s="9">
-        <v>840</v>
-      </c>
-      <c r="F74" s="14"/>
-      <c r="G74" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="J74" s="9">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E75" s="9">
-        <v>997</v>
-      </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="J75" s="9">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="9">
-        <v>978</v>
-      </c>
-      <c r="F76" s="14"/>
-      <c r="G76" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J76" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E77" s="9">
-        <v>230</v>
-      </c>
-      <c r="F77" s="14"/>
-      <c r="G77" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="I77" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="J77" s="9">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E78" s="9">
-        <v>242</v>
-      </c>
-      <c r="F78" s="14"/>
-      <c r="G78" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="J78" s="9">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E79" s="9">
-        <v>608</v>
-      </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="J79" s="9">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="9">
-        <v>978</v>
-      </c>
-      <c r="F80" s="14"/>
-      <c r="G80" s="6" t="s">
-        <v>464</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="J80" s="9">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E81" s="9">
-        <v>960</v>
-      </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="J81" s="9">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="9">
-        <v>978</v>
-      </c>
-      <c r="F82" s="14"/>
-      <c r="G82" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J82" s="9">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E83" s="9">
-        <v>950</v>
-      </c>
-      <c r="F83" s="14"/>
-      <c r="G83" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E84" s="9">
-        <v>270</v>
-      </c>
-      <c r="F84" s="14"/>
-      <c r="G84" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J84" s="9">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E85" s="9">
-        <v>981</v>
-      </c>
-      <c r="F85" s="14"/>
-      <c r="G85" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I85" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J85" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E86" s="9">
-        <v>936</v>
-      </c>
-      <c r="F86" s="14"/>
-      <c r="G86" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I86" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J86" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" s="9">
-        <v>292</v>
-      </c>
-      <c r="F87" s="14"/>
-      <c r="G87" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="J87" s="9">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="9">
-        <v>951</v>
-      </c>
-      <c r="F88" s="14"/>
-      <c r="G88" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J88" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="9">
-        <v>978</v>
-      </c>
-      <c r="F89" s="14"/>
-      <c r="G89" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="I89" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="J89" s="9">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" s="9">
-        <v>208</v>
-      </c>
-      <c r="F90" s="14"/>
-      <c r="G90" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J90" s="9">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="9">
-        <v>978</v>
-      </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="J91" s="9">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E92" s="9">
-        <v>840</v>
-      </c>
-      <c r="F92" s="14"/>
-      <c r="G92" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J92" s="9">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E93" s="9">
-        <v>320</v>
-      </c>
-      <c r="F93" s="14"/>
-      <c r="G93" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J93" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E94" s="9">
-        <v>826</v>
-      </c>
-      <c r="F94" s="14"/>
-      <c r="G94" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J94" s="9">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E95" s="9">
-        <v>324</v>
-      </c>
-      <c r="F95" s="14"/>
-      <c r="G95" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="I95" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="J95" s="9">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="9">
-        <v>950</v>
-      </c>
-      <c r="F96" s="14"/>
-      <c r="G96" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="I96" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J96" s="9">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E97" s="9">
-        <v>952</v>
-      </c>
-      <c r="F97" s="14"/>
-      <c r="G97" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="J97" s="9">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E98" s="9">
-        <v>328</v>
-      </c>
-      <c r="F98" s="14"/>
-      <c r="G98" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="I98" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="J98" s="9">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="9">
-        <v>978</v>
-      </c>
-      <c r="F99" s="14"/>
-      <c r="G99" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="J99" s="9">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E100" s="9">
-        <v>332</v>
-      </c>
-      <c r="F100" s="14"/>
-      <c r="G100" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="J100" s="9">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E101" s="9">
-        <v>840</v>
-      </c>
-      <c r="F101" s="14"/>
-      <c r="G101" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="J101" s="9">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="9">
-        <v>978</v>
-      </c>
-      <c r="F102" s="14"/>
-      <c r="G102" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="I102" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="J102" s="9">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E103" s="9">
-        <v>340</v>
-      </c>
-      <c r="F103" s="14"/>
-      <c r="G103" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="I103" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="J103" s="9">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E104" s="9">
-        <v>344</v>
-      </c>
-      <c r="F104" s="14"/>
-      <c r="G104" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="I104" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="J104" s="9">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E105" s="9">
-        <v>348</v>
-      </c>
-      <c r="F105" s="14"/>
-      <c r="G105" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="J105" s="9">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E106" s="9">
-        <v>356</v>
-      </c>
-      <c r="F106" s="14"/>
-      <c r="G106" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="I106" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="J106" s="9">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E107" s="9">
-        <v>360</v>
-      </c>
-      <c r="F107" s="14"/>
-      <c r="G107" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="I107" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="J107" s="9">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="E108" s="9">
-        <v>368</v>
-      </c>
-      <c r="F108" s="14"/>
-      <c r="G108" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="H108" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="I108" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="J108" s="9">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" s="9">
-        <v>978</v>
-      </c>
-      <c r="F109" s="14"/>
-      <c r="G109" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="I109" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="J109" s="9">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E110" s="9">
-        <v>578</v>
-      </c>
-      <c r="F110" s="14"/>
-      <c r="G110" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="I110" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="J110" s="9">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E111" s="9">
-        <v>826</v>
-      </c>
-      <c r="F111" s="14"/>
-      <c r="G111" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="I111" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="J111" s="9">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="9">
-        <v>36</v>
-      </c>
-      <c r="F112" s="14"/>
-      <c r="G112" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="I112" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="J112" s="9">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E113" s="9">
-        <v>36</v>
-      </c>
-      <c r="F113" s="14"/>
-      <c r="G113" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="I113" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="J113" s="9">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E114" s="9">
-        <v>352</v>
-      </c>
-      <c r="F114" s="14"/>
-      <c r="G114" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I114" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J114" s="9">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E115" s="9">
-        <v>136</v>
-      </c>
-      <c r="F115" s="14"/>
-      <c r="G115" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I115" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J115" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E116" s="9">
-        <v>36</v>
-      </c>
-      <c r="F116" s="14"/>
-      <c r="G116" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J116" s="9">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E117" s="9">
-        <v>554</v>
-      </c>
-      <c r="F117" s="14"/>
-      <c r="G117" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I117" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J117" s="9">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E118" s="9">
-        <v>208</v>
-      </c>
-      <c r="F118" s="14"/>
-      <c r="G118" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="I118" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="J118" s="9">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="8"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="I119" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="J119" s="9">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E120" s="9">
-        <v>36</v>
-      </c>
-      <c r="F120" s="14"/>
-      <c r="G120" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="I120" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="J120" s="9">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E121" s="9">
-        <v>238</v>
-      </c>
-      <c r="F121" s="14"/>
-      <c r="G121" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="I121" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="J121" s="9">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E122" s="9">
-        <v>840</v>
-      </c>
-      <c r="F122" s="14"/>
-      <c r="G122" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>553</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="J122" s="9">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E123" s="9">
-        <v>840</v>
-      </c>
-      <c r="F123" s="14"/>
-      <c r="G123" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="I123" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J123" s="9">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E124" s="9">
-        <v>90</v>
-      </c>
-      <c r="F124" s="14"/>
-      <c r="G124" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="I124" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="J124" s="9">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E125" s="9">
-        <v>578</v>
-      </c>
-      <c r="F125" s="14"/>
-      <c r="G125" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="I125" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="J125" s="9">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E126" s="9">
-        <v>840</v>
-      </c>
-      <c r="F126" s="14"/>
-      <c r="G126" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="I126" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="J126" s="9">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E127" s="9">
-        <v>840</v>
-      </c>
-      <c r="F127" s="14"/>
-      <c r="G127" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I127" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J127" s="9">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E128" s="9">
-        <v>840</v>
-      </c>
-      <c r="F128" s="14"/>
-      <c r="G128" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="I128" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="J128" s="9">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E129" s="9">
-        <v>840</v>
-      </c>
-      <c r="F129" s="14"/>
-      <c r="G129" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="I129" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="J129" s="9">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="9">
-        <v>978</v>
-      </c>
-      <c r="F130" s="14"/>
-      <c r="G130" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="H130" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="J130" s="9">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E131" s="9">
-        <v>376</v>
-      </c>
-      <c r="F131" s="14"/>
-      <c r="G131" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="J131" s="9">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="9">
-        <v>978</v>
-      </c>
-      <c r="F132" s="14"/>
-      <c r="G132" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="I132" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="J132" s="9">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D133" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E133" s="9">
-        <v>388</v>
-      </c>
-      <c r="F133" s="14"/>
-      <c r="G133" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="J133" s="9">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E134" s="9">
-        <v>392</v>
-      </c>
-      <c r="F134" s="14"/>
-      <c r="G134" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="I134" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="J134" s="9">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E135" s="9">
-        <v>826</v>
-      </c>
-      <c r="F135" s="14"/>
-      <c r="G135" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="I135" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="J135" s="9">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E136" s="9">
-        <v>400</v>
-      </c>
-      <c r="F136" s="14"/>
-      <c r="G136" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="I136" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="J136" s="9">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E137" s="9">
-        <v>398</v>
-      </c>
-      <c r="F137" s="14"/>
-      <c r="G137" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="H137" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="I137" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="J137" s="13">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G70" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="J70" s="5">
+        <v>404</v>
+      </c>
+      <c r="K70" s="14"/>
+      <c r="P70" s="21"/>
+    </row>
+    <row r="71" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="20"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="20"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="20"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="20"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="20"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="20"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="20"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="20"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="2:20" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="20"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="20"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="20"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="20"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="20"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="20"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="20"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+    </row>
+    <row r="88" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="20"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+    </row>
+    <row r="89" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D89" s="20"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+    </row>
+    <row r="90" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="21"/>
+    </row>
+    <row r="91" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="20"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="21"/>
+    </row>
+    <row r="92" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="20"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+    </row>
+    <row r="93" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="20"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="20"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+    </row>
+    <row r="95" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="20"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="21"/>
+    </row>
+    <row r="96" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="20"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="21"/>
+    </row>
+    <row r="97" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="20"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+    </row>
+    <row r="98" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="20"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+    </row>
+    <row r="99" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="20"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+    </row>
+    <row r="100" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="20"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+    </row>
+    <row r="101" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+    </row>
+    <row r="102" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D102" s="20"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+    </row>
+    <row r="103" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D103" s="20"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+    </row>
+    <row r="104" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+    </row>
+    <row r="105" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D105" s="20"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+    </row>
+    <row r="106" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D106" s="20"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+    </row>
+    <row r="107" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D107" s="20"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+    </row>
+    <row r="108" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D108" s="20"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+    </row>
+    <row r="109" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D109" s="20"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+    </row>
+    <row r="110" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D110" s="20"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
+    </row>
+    <row r="111" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D111" s="20"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
+    </row>
+    <row r="112" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D112" s="20"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
+    </row>
+    <row r="113" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D113" s="20"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+    </row>
+    <row r="114" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D114" s="20"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+    </row>
+    <row r="115" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="20"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+    </row>
+    <row r="116" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D116" s="20"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+    </row>
+    <row r="117" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D117" s="20"/>
+      <c r="E117" s="21"/>
+      <c r="F117" s="21"/>
+    </row>
+    <row r="118" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D118" s="20"/>
+      <c r="E118" s="21"/>
+      <c r="F118" s="21"/>
+    </row>
+    <row r="119" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D119" s="20"/>
+      <c r="E119" s="21"/>
+      <c r="F119" s="21"/>
+    </row>
+    <row r="120" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D120" s="20"/>
+      <c r="E120" s="21"/>
+      <c r="F120" s="21"/>
+    </row>
+    <row r="121" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D121" s="20"/>
+      <c r="E121" s="21"/>
+      <c r="F121" s="21"/>
+    </row>
+    <row r="122" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D122" s="20"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="21"/>
+    </row>
+    <row r="123" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D123" s="20"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
+    </row>
+    <row r="124" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D124" s="20"/>
+      <c r="E124" s="21"/>
+      <c r="F124" s="21"/>
+    </row>
+    <row r="125" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D125" s="20"/>
+      <c r="E125" s="21"/>
+      <c r="F125" s="21"/>
+    </row>
+    <row r="126" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D126" s="20"/>
+      <c r="E126" s="21"/>
+      <c r="F126" s="21"/>
+    </row>
+    <row r="127" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D127" s="20"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+    </row>
+    <row r="128" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D128" s="20"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+    </row>
+    <row r="129" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D129" s="20"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+    </row>
+    <row r="130" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D130" s="20"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+    </row>
+    <row r="131" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D131" s="20"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="21"/>
+    </row>
+    <row r="132" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D132" s="20"/>
+      <c r="E132" s="21"/>
+      <c r="F132" s="21"/>
+    </row>
+    <row r="133" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D133" s="20"/>
+      <c r="E133" s="21"/>
+      <c r="F133" s="21"/>
+    </row>
+    <row r="134" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D134" s="20"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="21"/>
+    </row>
+    <row r="135" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D135" s="20"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="21"/>
+    </row>
+    <row r="136" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D136" s="20"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+    </row>
+    <row r="137" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D137" s="20"/>
+      <c r="E137" s="21"/>
+      <c r="F137" s="21"/>
+    </row>
+    <row r="138" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D138" s="20"/>
+      <c r="E138" s="21"/>
+      <c r="F138" s="21"/>
+    </row>
+    <row r="139" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D139" s="20"/>
+      <c r="E139" s="21"/>
+      <c r="F139" s="21"/>
+    </row>
+    <row r="140" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D140" s="20"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+    </row>
+    <row r="141" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D141" s="20"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+    </row>
+    <row r="142" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D142" s="20"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+    </row>
+    <row r="143" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D143" s="20"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+    </row>
+    <row r="144" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D144" s="20"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="21"/>
+    </row>
+    <row r="145" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D145" s="20"/>
+      <c r="E145" s="21"/>
+      <c r="F145" s="21"/>
+    </row>
+    <row r="146" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D146" s="20"/>
+      <c r="E146" s="21"/>
+      <c r="F146" s="21"/>
+    </row>
+    <row r="147" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D147" s="20"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
+    </row>
+    <row r="148" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D148" s="20"/>
+      <c r="E148" s="21"/>
+      <c r="F148" s="21"/>
+    </row>
+    <row r="149" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D149" s="20"/>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
+    </row>
+    <row r="150" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D150" s="20"/>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
+    </row>
+    <row r="151" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D151" s="20"/>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
+    </row>
+    <row r="152" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D152" s="20"/>
+      <c r="E152" s="21"/>
+      <c r="F152" s="21"/>
+    </row>
+    <row r="153" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D153" s="20"/>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+    </row>
+    <row r="154" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="20"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+    </row>
+    <row r="155" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D155" s="20"/>
+      <c r="E155" s="21"/>
+      <c r="F155" s="21"/>
+    </row>
+    <row r="156" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D156" s="20"/>
+      <c r="E156" s="21"/>
+      <c r="F156" s="21"/>
+    </row>
+    <row r="157" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D157" s="20"/>
+      <c r="E157" s="21"/>
+      <c r="F157" s="21"/>
+    </row>
+    <row r="158" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D158" s="20"/>
+      <c r="E158" s="21"/>
+      <c r="F158" s="21"/>
+    </row>
+    <row r="159" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D159" s="20"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
+    </row>
+    <row r="160" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D160" s="20"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
+    </row>
+    <row r="161" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D161" s="20"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
+    </row>
+    <row r="162" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D162" s="20"/>
+      <c r="E162" s="21"/>
+      <c r="F162" s="21"/>
+    </row>
+    <row r="163" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D163" s="20"/>
+      <c r="E163" s="21"/>
+      <c r="F163" s="21"/>
+    </row>
+    <row r="164" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D164" s="20"/>
+      <c r="E164" s="21"/>
+      <c r="F164" s="21"/>
+    </row>
+    <row r="165" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D165" s="20"/>
+      <c r="E165" s="21"/>
+      <c r="F165" s="21"/>
+    </row>
+    <row r="166" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D166" s="20"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+    </row>
+    <row r="167" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D167" s="20"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="21"/>
+    </row>
+    <row r="168" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D168" s="20"/>
+      <c r="E168" s="21"/>
+      <c r="F168" s="21"/>
+    </row>
+    <row r="169" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D169" s="20"/>
+      <c r="E169" s="21"/>
+      <c r="F169" s="21"/>
+    </row>
+    <row r="170" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D170" s="20"/>
+      <c r="E170" s="21"/>
+      <c r="F170" s="21"/>
+    </row>
+    <row r="171" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D171" s="20"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+    </row>
+    <row r="172" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D172" s="20"/>
+      <c r="E172" s="21"/>
+      <c r="F172" s="21"/>
+    </row>
+    <row r="173" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D173" s="20"/>
+      <c r="E173" s="21"/>
+      <c r="F173" s="21"/>
+    </row>
+    <row r="174" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D174" s="20"/>
+      <c r="E174" s="21"/>
+      <c r="F174" s="21"/>
+    </row>
+    <row r="175" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D175" s="20"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21"/>
+    </row>
+    <row r="176" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D176" s="20"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+    </row>
+    <row r="177" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D177" s="20"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+    </row>
+    <row r="178" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D178" s="20"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+    </row>
+    <row r="179" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D179" s="20"/>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21"/>
+    </row>
+    <row r="180" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D180" s="20"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="21"/>
+    </row>
+    <row r="181" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D181" s="20"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+    </row>
+    <row r="182" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D182" s="20"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+    </row>
+    <row r="183" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D183" s="20"/>
+      <c r="E183" s="21"/>
+      <c r="F183" s="21"/>
+    </row>
+    <row r="184" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D184" s="20"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+    </row>
+    <row r="185" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D185" s="20"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
+    </row>
+    <row r="186" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D186" s="20"/>
+      <c r="E186" s="21"/>
+      <c r="F186" s="21"/>
+    </row>
+    <row r="187" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D187" s="20"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
+    </row>
+    <row r="188" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D188" s="20"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+    </row>
+    <row r="189" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D189" s="20"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+    </row>
+    <row r="190" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D190" s="20"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+    </row>
+    <row r="191" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D191" s="20"/>
+      <c r="E191" s="21"/>
+      <c r="F191" s="21"/>
+    </row>
+    <row r="192" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D192" s="20"/>
+      <c r="E192" s="21"/>
+      <c r="F192" s="21"/>
+    </row>
+    <row r="193" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D193" s="20"/>
+      <c r="E193" s="21"/>
+      <c r="F193" s="21"/>
+    </row>
+    <row r="194" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D194" s="20"/>
+      <c r="E194" s="21"/>
+      <c r="F194" s="21"/>
+    </row>
+    <row r="195" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D195" s="20"/>
+      <c r="E195" s="21"/>
+      <c r="F195" s="21"/>
+    </row>
+    <row r="196" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D196" s="20"/>
+      <c r="E196" s="21"/>
+      <c r="F196" s="21"/>
+    </row>
+    <row r="197" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D197" s="20"/>
+      <c r="E197" s="21"/>
+      <c r="F197" s="21"/>
+    </row>
+    <row r="198" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D198" s="20"/>
+      <c r="E198" s="21"/>
+      <c r="F198" s="21"/>
+    </row>
+    <row r="199" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D199" s="20"/>
+      <c r="E199" s="21"/>
+      <c r="F199" s="21"/>
+    </row>
+    <row r="200" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D200" s="20"/>
+      <c r="E200" s="21"/>
+      <c r="F200" s="21"/>
+    </row>
+    <row r="201" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D201" s="20"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
+    </row>
+    <row r="202" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D202" s="20"/>
+      <c r="E202" s="21"/>
+      <c r="F202" s="21"/>
+    </row>
+    <row r="203" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D203" s="20"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
+    </row>
+    <row r="204" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D204" s="20"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
+    </row>
+    <row r="205" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D205" s="20"/>
+      <c r="E205" s="21"/>
+      <c r="F205" s="21"/>
+    </row>
+    <row r="206" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D206" s="20"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+    </row>
+    <row r="207" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D207" s="20"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+    </row>
+    <row r="208" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D208" s="20"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+    </row>
+    <row r="209" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D209" s="20"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
+    </row>
+    <row r="210" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D210" s="20"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="21"/>
+    </row>
+    <row r="211" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D211" s="20"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
+    </row>
+    <row r="212" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D212" s="20"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
+    </row>
+    <row r="213" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D213" s="20"/>
+      <c r="E213" s="21"/>
+      <c r="F213" s="21"/>
+    </row>
+    <row r="214" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D214" s="20"/>
+      <c r="E214" s="21"/>
+      <c r="F214" s="21"/>
+    </row>
+    <row r="215" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D215" s="20"/>
+      <c r="E215" s="21"/>
+      <c r="F215" s="21"/>
+    </row>
+    <row r="216" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D216" s="20"/>
+      <c r="E216" s="21"/>
+      <c r="F216" s="21"/>
+    </row>
+    <row r="217" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D217" s="20"/>
+      <c r="E217" s="21"/>
+      <c r="F217" s="21"/>
+    </row>
+    <row r="218" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D218" s="20"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="21"/>
+    </row>
+    <row r="219" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D219" s="20"/>
+      <c r="E219" s="21"/>
+      <c r="F219" s="21"/>
+    </row>
+    <row r="220" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D220" s="20"/>
+      <c r="E220" s="21"/>
+      <c r="F220" s="21"/>
+    </row>
+    <row r="221" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D221" s="20"/>
+      <c r="E221" s="21"/>
+      <c r="F221" s="21"/>
+    </row>
+    <row r="222" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D222" s="20"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="21"/>
+    </row>
+    <row r="223" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D223" s="20"/>
+      <c r="E223" s="21"/>
+      <c r="F223" s="21"/>
+    </row>
+    <row r="224" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D224" s="20"/>
+      <c r="E224" s="21"/>
+      <c r="F224" s="21"/>
+    </row>
+    <row r="225" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D225" s="20"/>
+      <c r="E225" s="21"/>
+      <c r="F225" s="21"/>
+    </row>
+    <row r="226" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D226" s="20"/>
+      <c r="E226" s="21"/>
+      <c r="F226" s="21"/>
+    </row>
+    <row r="227" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D227" s="20"/>
+      <c r="E227" s="21"/>
+      <c r="F227" s="21"/>
+    </row>
+    <row r="228" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D228" s="20"/>
+      <c r="E228" s="21"/>
+      <c r="F228" s="21"/>
+    </row>
+    <row r="229" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D229" s="20"/>
+      <c r="E229" s="21"/>
+      <c r="F229" s="21"/>
+    </row>
+    <row r="230" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D230" s="20"/>
+      <c r="E230" s="21"/>
+      <c r="F230" s="21"/>
+    </row>
+    <row r="231" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D231" s="20"/>
+      <c r="E231" s="21"/>
+      <c r="F231" s="21"/>
+    </row>
+    <row r="232" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D232" s="20"/>
+      <c r="E232" s="21"/>
+      <c r="F232" s="21"/>
+    </row>
+    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D233" s="20"/>
+      <c r="E233" s="21"/>
+      <c r="F233" s="21"/>
+    </row>
+    <row r="234" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D234" s="20"/>
+      <c r="E234" s="21"/>
+      <c r="F234" s="21"/>
+    </row>
+    <row r="235" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D235" s="20"/>
+      <c r="E235" s="21"/>
+      <c r="F235" s="21"/>
+    </row>
+    <row r="236" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D236" s="20"/>
+      <c r="E236" s="21"/>
+      <c r="F236" s="21"/>
+    </row>
+    <row r="237" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D237" s="20"/>
+      <c r="E237" s="21"/>
+      <c r="F237" s="21"/>
+    </row>
+    <row r="238" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D238" s="20"/>
+      <c r="E238" s="21"/>
+      <c r="F238" s="21"/>
+    </row>
+    <row r="239" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D239" s="20"/>
+      <c r="E239" s="21"/>
+      <c r="F239" s="21"/>
+    </row>
+    <row r="240" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D240" s="20"/>
+      <c r="E240" s="21"/>
+      <c r="F240" s="21"/>
+    </row>
+    <row r="241" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D241" s="20"/>
+      <c r="E241" s="21"/>
+      <c r="F241" s="21"/>
+    </row>
+    <row r="242" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D242" s="20"/>
+      <c r="E242" s="21"/>
+      <c r="F242" s="21"/>
+    </row>
+    <row r="243" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D243" s="20"/>
+      <c r="E243" s="21"/>
+      <c r="F243" s="21"/>
+    </row>
+    <row r="244" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D244" s="20"/>
+      <c r="E244" s="21"/>
+      <c r="F244" s="21"/>
+    </row>
+    <row r="245" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D245" s="20"/>
+      <c r="E245" s="21"/>
+      <c r="F245" s="21"/>
+    </row>
+    <row r="246" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D246" s="20"/>
+      <c r="E246" s="21"/>
+      <c r="F246" s="21"/>
+    </row>
+    <row r="247" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D247" s="20"/>
+      <c r="E247" s="21"/>
+      <c r="F247" s="21"/>
+    </row>
+    <row r="248" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D248" s="20"/>
+      <c r="E248" s="21"/>
+      <c r="F248" s="21"/>
+    </row>
+    <row r="249" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D249" s="20"/>
+      <c r="E249" s="21"/>
+      <c r="F249" s="21"/>
+    </row>
+    <row r="250" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D250" s="20"/>
+      <c r="E250" s="21"/>
+      <c r="F250" s="21"/>
+    </row>
+    <row r="251" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D251" s="20"/>
+      <c r="E251" s="21"/>
+      <c r="F251" s="21"/>
+    </row>
+    <row r="252" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D252" s="20"/>
+      <c r="E252" s="21"/>
+      <c r="F252" s="21"/>
+    </row>
+    <row r="253" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D253" s="20"/>
+      <c r="E253" s="21"/>
+      <c r="F253" s="21"/>
+    </row>
+    <row r="254" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D254" s="20"/>
+      <c r="E254" s="21"/>
+      <c r="F254" s="21"/>
+    </row>
+    <row r="255" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D255" s="20"/>
+      <c r="E255" s="21"/>
+      <c r="F255" s="21"/>
+    </row>
+    <row r="256" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D256" s="20"/>
+      <c r="E256" s="21"/>
+      <c r="F256" s="21"/>
+    </row>
+    <row r="257" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D257" s="20"/>
+      <c r="E257" s="21"/>
+      <c r="F257" s="21"/>
+    </row>
+    <row r="258" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D258" s="20"/>
+      <c r="E258" s="21"/>
+      <c r="F258" s="21"/>
+    </row>
+    <row r="259" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D259" s="20"/>
+      <c r="E259" s="21"/>
+      <c r="F259" s="21"/>
+    </row>
+    <row r="260" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D260" s="20"/>
+      <c r="E260" s="21"/>
+      <c r="F260" s="21"/>
+    </row>
+    <row r="261" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D261" s="20"/>
+      <c r="E261" s="21"/>
+      <c r="F261" s="21"/>
+    </row>
+    <row r="262" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D262" s="20"/>
+      <c r="E262" s="21"/>
+      <c r="F262" s="21"/>
+    </row>
+    <row r="263" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D263" s="20"/>
+      <c r="E263" s="21"/>
+      <c r="F263" s="21"/>
+    </row>
+    <row r="264" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="4:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
